--- a/Videoclub.xlsx
+++ b/Videoclub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E771"/>
+  <dimension ref="A1:F772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>DISPOSITIVO</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DIRECTOR</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,6 +485,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +531,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -547,6 +555,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -570,6 +579,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,6 +603,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -616,6 +627,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -639,6 +651,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +675,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,6 +695,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -704,6 +719,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -727,6 +743,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +767,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -773,6 +791,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -796,6 +815,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -819,6 +839,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -842,6 +863,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -865,6 +887,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -888,6 +911,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -911,6 +935,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -934,6 +959,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -957,6 +983,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -980,6 +1007,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1003,6 +1031,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1026,6 +1055,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1049,6 +1079,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1074,6 +1105,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1097,6 +1129,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1120,6 +1153,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1143,6 +1177,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1166,6 +1201,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1189,6 +1225,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1214,6 +1251,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1237,6 +1275,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1260,6 +1299,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1285,6 +1325,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1310,6 +1351,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1333,6 +1375,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1356,6 +1399,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1379,6 +1423,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1402,6 +1447,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1425,6 +1471,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1448,6 +1495,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1471,6 +1519,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1494,6 +1543,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1517,6 +1567,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1540,6 +1591,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1563,6 +1615,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1586,6 +1639,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1609,6 +1663,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1632,6 +1687,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1655,6 +1711,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1678,6 +1735,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1701,6 +1759,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1724,6 +1783,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1747,6 +1807,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1770,6 +1831,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1793,6 +1855,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1816,6 +1879,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1839,6 +1903,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1864,6 +1929,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1889,6 +1955,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1914,6 +1981,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1939,6 +2007,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1964,6 +2033,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1989,6 +2059,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2014,6 +2085,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2039,6 +2111,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2064,6 +2137,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2089,6 +2163,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2112,6 +2187,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2135,6 +2211,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2160,6 +2237,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2183,6 +2261,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2206,6 +2285,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2229,6 +2309,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2252,6 +2333,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2275,6 +2357,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2298,6 +2381,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2321,6 +2405,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2344,6 +2429,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2367,6 +2453,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2390,6 +2477,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2413,6 +2501,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2436,6 +2525,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2459,6 +2549,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2482,6 +2573,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2505,6 +2597,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2528,6 +2621,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2551,6 +2645,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2574,6 +2669,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2597,6 +2693,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2620,6 +2717,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2643,6 +2741,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2668,6 +2767,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2691,6 +2791,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2714,6 +2815,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2737,6 +2839,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2760,6 +2863,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2783,6 +2887,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2806,6 +2911,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2829,6 +2935,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2852,6 +2959,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2875,6 +2983,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2898,6 +3007,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2921,6 +3031,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2944,6 +3055,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2969,6 +3081,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2992,6 +3105,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3017,6 +3131,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3040,6 +3155,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3063,6 +3179,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3086,6 +3203,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3109,6 +3227,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3132,6 +3251,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3155,6 +3275,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3180,6 +3301,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3203,6 +3325,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3226,6 +3349,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3251,6 +3375,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3274,6 +3399,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3297,6 +3423,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3320,6 +3447,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3345,6 +3473,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3368,6 +3497,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3391,6 +3521,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3416,6 +3547,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3439,6 +3571,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3464,6 +3597,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3487,6 +3621,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3510,6 +3645,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3533,6 +3669,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3556,6 +3693,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3581,6 +3719,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3604,6 +3743,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3629,6 +3769,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3652,6 +3793,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3675,6 +3817,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3698,6 +3841,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3721,6 +3865,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3744,6 +3889,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3767,6 +3913,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3790,6 +3937,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3813,6 +3961,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3838,6 +3987,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3861,6 +4011,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3884,6 +4035,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3907,6 +4059,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3930,6 +4083,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3953,6 +4107,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3976,6 +4131,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3999,6 +4155,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4022,6 +4179,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4045,6 +4203,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4068,6 +4227,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4091,6 +4251,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4114,6 +4275,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4137,6 +4299,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4160,6 +4323,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4183,6 +4347,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4206,6 +4371,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4229,6 +4395,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4252,6 +4419,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4277,6 +4445,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4300,6 +4469,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4323,6 +4493,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4346,6 +4517,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4369,6 +4541,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4392,6 +4565,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4415,6 +4589,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4438,6 +4613,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4463,6 +4639,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4488,6 +4665,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4511,6 +4689,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4536,6 +4715,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4561,6 +4741,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4584,6 +4765,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4607,6 +4789,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4630,6 +4813,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4653,6 +4837,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4676,6 +4861,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4699,6 +4885,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4722,6 +4909,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4745,6 +4933,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4768,6 +4957,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4791,6 +4981,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4814,6 +5005,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4839,6 +5031,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4864,6 +5057,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4887,6 +5081,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4910,6 +5105,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4935,6 +5131,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4958,6 +5155,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4981,6 +5179,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5006,6 +5205,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5029,6 +5229,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5052,6 +5253,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5075,6 +5277,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5100,6 +5303,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5123,6 +5327,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5148,6 +5353,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5171,6 +5377,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5194,6 +5401,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5217,6 +5425,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5240,6 +5449,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5263,6 +5473,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5286,6 +5497,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5309,6 +5521,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5334,6 +5547,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5357,6 +5571,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5380,6 +5595,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5403,6 +5619,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5428,6 +5645,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5451,6 +5669,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5474,6 +5693,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5497,6 +5717,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5520,6 +5741,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5543,6 +5765,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5566,6 +5789,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5591,6 +5815,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5614,6 +5839,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5639,6 +5865,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5662,6 +5889,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5685,6 +5913,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5708,6 +5937,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5731,6 +5961,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5756,6 +5987,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5779,6 +6011,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5802,6 +6035,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5825,6 +6059,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5848,6 +6083,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5871,6 +6107,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5894,6 +6131,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5917,6 +6155,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5940,6 +6179,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5963,6 +6203,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5986,6 +6227,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6009,6 +6251,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6032,6 +6275,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6055,6 +6299,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6078,6 +6323,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6101,6 +6347,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6124,6 +6371,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6147,6 +6395,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6170,6 +6419,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6193,6 +6443,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6216,6 +6467,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6239,6 +6491,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6262,6 +6515,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6285,6 +6539,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6308,6 +6563,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6331,6 +6587,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6354,6 +6611,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6377,6 +6635,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6400,6 +6659,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6423,6 +6683,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6446,6 +6707,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6469,6 +6731,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6492,6 +6755,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6515,6 +6779,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6538,6 +6803,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6561,6 +6827,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6584,6 +6851,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6609,6 +6877,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6632,6 +6901,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6655,6 +6925,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6678,6 +6949,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6701,6 +6973,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6724,6 +6997,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6747,6 +7021,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6772,6 +7047,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6795,6 +7071,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6818,6 +7095,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6843,6 +7121,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6866,6 +7145,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6889,6 +7169,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6912,6 +7193,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6935,6 +7217,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6958,6 +7241,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6983,6 +7267,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7006,6 +7291,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7029,6 +7315,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7052,6 +7339,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7075,6 +7363,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7098,6 +7387,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7121,6 +7411,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7144,6 +7435,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7167,6 +7459,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7190,6 +7483,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7211,6 +7505,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7234,6 +7529,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7259,6 +7555,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7284,6 +7581,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7309,6 +7607,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7332,6 +7631,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7355,6 +7655,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7378,6 +7679,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7401,6 +7703,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7424,6 +7727,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7447,6 +7751,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7472,6 +7777,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7497,6 +7803,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7520,6 +7827,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7543,6 +7851,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7566,6 +7875,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7589,6 +7899,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7612,6 +7923,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7635,6 +7947,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7658,6 +7971,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7681,6 +7995,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7704,6 +8019,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7727,6 +8043,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7750,6 +8067,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7773,6 +8091,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7796,6 +8115,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7819,6 +8139,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7842,6 +8163,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7867,6 +8189,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7890,6 +8213,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7915,6 +8239,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7938,6 +8263,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7961,6 +8287,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7984,6 +8311,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8007,6 +8335,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8030,6 +8359,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8053,6 +8383,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8076,6 +8407,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8099,6 +8431,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8122,6 +8455,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8145,6 +8479,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8168,6 +8503,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8191,6 +8527,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8214,6 +8551,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8239,6 +8577,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -8262,6 +8601,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -8287,6 +8627,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -8312,6 +8653,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -8335,6 +8677,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -8358,6 +8701,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -8381,6 +8725,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -8404,6 +8749,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8427,6 +8773,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8450,6 +8797,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8473,6 +8821,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8496,6 +8845,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8519,6 +8869,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8544,6 +8895,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8567,6 +8919,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8592,6 +8945,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8615,6 +8969,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8638,6 +8993,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8661,6 +9017,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8686,6 +9043,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8711,6 +9069,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8734,6 +9093,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8759,6 +9119,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8782,6 +9143,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8805,6 +9167,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8828,6 +9191,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8851,6 +9215,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8874,6 +9239,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8897,6 +9263,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8920,6 +9287,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8943,6 +9311,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8966,6 +9335,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8989,6 +9359,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -9012,6 +9383,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -9035,6 +9407,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -9058,6 +9431,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -9081,6 +9455,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -9104,6 +9479,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -9129,6 +9505,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -9152,6 +9529,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -9177,6 +9555,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -9202,6 +9581,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -9225,6 +9605,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -9250,6 +9631,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -9273,6 +9655,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -9298,6 +9681,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9321,6 +9705,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -9344,6 +9729,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -9367,6 +9753,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -9390,6 +9777,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -9413,6 +9801,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -9436,6 +9825,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -9461,6 +9851,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -9484,6 +9875,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -9507,6 +9899,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -9530,6 +9923,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -9553,6 +9947,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9576,6 +9971,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -9599,6 +9995,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9624,6 +10021,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9647,6 +10045,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -9672,6 +10071,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -9695,6 +10095,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -9718,6 +10119,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -9741,6 +10143,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -9764,6 +10167,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -9787,6 +10191,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -9810,6 +10215,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -9835,6 +10241,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -9858,6 +10265,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -9881,6 +10289,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -9906,6 +10315,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -9929,6 +10339,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -9952,6 +10363,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -9975,6 +10387,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -9998,6 +10411,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -10023,6 +10437,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -10048,6 +10463,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -10071,6 +10487,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -10096,6 +10513,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -10119,6 +10537,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -10142,6 +10561,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -10165,6 +10585,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -10188,6 +10609,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -10211,6 +10633,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -10234,6 +10657,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -10257,6 +10681,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -10280,6 +10705,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -10303,6 +10729,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -10326,6 +10753,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -10349,6 +10777,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -10372,6 +10801,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -10397,6 +10827,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -10420,6 +10851,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -10443,6 +10875,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -10466,6 +10899,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -10491,6 +10925,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -10516,6 +10951,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -10539,6 +10975,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -10562,6 +10999,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -10585,6 +11023,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -10608,6 +11047,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -10633,6 +11073,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -10656,6 +11097,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -10679,6 +11121,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -10702,6 +11145,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -10727,6 +11171,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -10750,6 +11195,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -10773,6 +11219,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -10796,6 +11243,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -10821,6 +11269,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -10844,6 +11293,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -10867,6 +11317,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -10890,6 +11341,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -10913,6 +11365,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -10936,6 +11389,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -10959,6 +11413,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -10984,6 +11439,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -11009,6 +11465,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -11032,6 +11489,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -11055,6 +11513,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -11078,6 +11537,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -11101,6 +11561,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -11124,6 +11585,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -11147,6 +11609,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -11170,6 +11633,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -11193,6 +11657,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -11216,6 +11681,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -11239,6 +11705,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -11262,6 +11729,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -11285,6 +11753,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -11308,6 +11777,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -11331,6 +11801,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -11354,6 +11825,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -11377,6 +11849,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -11400,6 +11873,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -11423,6 +11897,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -11446,6 +11921,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -11469,6 +11945,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -11492,6 +11969,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -11517,6 +11995,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -11540,6 +12019,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -11563,6 +12043,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -11586,6 +12067,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -11609,6 +12091,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -11634,6 +12117,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -11657,6 +12141,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -11680,6 +12165,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -11703,6 +12189,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -11726,6 +12213,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -11751,6 +12239,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -11774,6 +12263,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -11797,6 +12287,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -11820,6 +12311,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -11843,6 +12335,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -11866,6 +12359,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -11889,6 +12383,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -11912,6 +12407,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -11935,6 +12431,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -11958,6 +12455,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -11981,6 +12479,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -12004,6 +12503,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -12027,6 +12527,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -12050,6 +12551,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -12073,6 +12575,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -12096,6 +12599,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -12119,6 +12623,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -12142,6 +12647,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -12165,6 +12671,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -12188,6 +12695,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -12213,6 +12721,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -12238,6 +12747,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -12263,6 +12773,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -12286,6 +12797,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -12309,6 +12821,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -12332,6 +12845,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -12355,6 +12869,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -12378,6 +12893,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -12401,6 +12917,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -12424,6 +12941,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -12447,6 +12965,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -12470,6 +12989,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -12495,6 +13015,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -12518,6 +13039,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -12541,6 +13063,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -12564,6 +13087,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -12587,6 +13111,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -12610,6 +13135,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -12633,6 +13159,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -12656,6 +13183,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -12679,6 +13207,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -12702,6 +13231,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -12725,6 +13255,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -12748,6 +13279,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -12773,6 +13305,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -12796,6 +13329,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -12819,6 +13353,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -12842,6 +13377,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -12865,6 +13401,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -12888,6 +13425,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -12911,6 +13449,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -12934,6 +13473,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -12957,6 +13497,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -12980,6 +13521,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -13003,6 +13545,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -13026,6 +13569,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -13049,6 +13593,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -13072,6 +13617,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -13097,6 +13643,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -13120,6 +13667,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -13145,6 +13693,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -13168,6 +13717,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -13191,6 +13741,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -13214,6 +13765,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -13237,6 +13789,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -13260,6 +13813,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -13283,6 +13837,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -13306,6 +13861,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -13329,6 +13885,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -13352,6 +13909,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -13375,6 +13933,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -13398,6 +13957,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -13421,6 +13981,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -13444,6 +14005,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -13469,6 +14031,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -13494,6 +14057,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -13519,6 +14083,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -13544,6 +14109,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -13569,6 +14135,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -13594,6 +14161,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -13619,6 +14187,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -13644,6 +14213,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -13669,6 +14239,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -13694,6 +14265,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -13719,6 +14291,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -13744,6 +14317,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -13769,6 +14343,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -13792,6 +14367,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -13815,6 +14391,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -13838,6 +14415,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -13861,6 +14439,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -13884,6 +14463,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -13907,6 +14487,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -13930,6 +14511,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -13953,6 +14535,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -13976,6 +14559,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -13999,6 +14583,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -14022,6 +14607,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -14045,6 +14631,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -14068,6 +14655,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -14093,6 +14681,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -14118,6 +14707,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -14141,6 +14731,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -14164,6 +14755,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -14187,6 +14779,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -14210,6 +14803,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -14233,6 +14827,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -14256,6 +14851,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -14279,6 +14875,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -14302,6 +14899,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -14325,6 +14923,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -14348,6 +14947,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -14373,6 +14973,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -14396,6 +14997,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -14419,6 +15021,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -14442,6 +15045,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -14465,6 +15069,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -14488,6 +15093,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -14511,6 +15117,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -14534,6 +15141,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -14557,6 +15165,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -14580,6 +15189,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -14603,6 +15213,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -14626,6 +15237,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -14649,6 +15261,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -14674,6 +15287,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -14697,6 +15311,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -14720,6 +15335,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -14743,6 +15359,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -14766,6 +15383,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -14789,6 +15407,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -14812,6 +15431,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -14837,6 +15457,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -14860,6 +15481,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -14885,6 +15507,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -14908,6 +15531,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -14933,6 +15557,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -14958,6 +15583,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -14983,6 +15609,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -15006,6 +15633,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -15029,6 +15657,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -15054,6 +15683,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -15077,6 +15707,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -15100,6 +15731,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -15123,6 +15755,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -15146,6 +15779,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -15169,6 +15803,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -15192,6 +15827,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -15217,6 +15853,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -15240,6 +15877,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -15263,6 +15901,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -15288,6 +15927,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -15311,6 +15951,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -15334,6 +15975,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -15357,6 +15999,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -15380,6 +16023,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -15403,6 +16047,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -15426,6 +16071,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -15449,6 +16095,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -15472,6 +16119,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -15495,6 +16143,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -15518,6 +16167,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -15541,6 +16191,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -15564,6 +16215,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -15587,6 +16239,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -15610,6 +16263,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -15633,6 +16287,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -15656,6 +16311,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -15679,6 +16335,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -15702,6 +16359,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -15725,6 +16383,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -15748,6 +16407,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -15771,6 +16431,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -15794,6 +16455,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -15819,6 +16481,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -15844,6 +16507,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -15867,6 +16531,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -15892,6 +16557,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -15915,6 +16581,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -15938,6 +16605,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -15961,6 +16629,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -15984,6 +16653,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -16007,6 +16677,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -16030,6 +16701,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -16053,6 +16725,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -16076,6 +16749,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -16099,6 +16773,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -16122,6 +16797,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -16145,6 +16821,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -16168,6 +16845,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -16191,6 +16869,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -16214,6 +16893,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -16237,6 +16917,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -16262,6 +16943,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -16287,6 +16969,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -16310,6 +16993,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -16333,6 +17017,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -16356,6 +17041,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -16379,6 +17065,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -16402,6 +17089,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -16425,6 +17113,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -16448,6 +17137,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -16471,6 +17161,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -16496,6 +17187,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -16521,6 +17213,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -16544,6 +17237,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -16569,6 +17263,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -16592,6 +17287,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -16615,6 +17311,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -16638,6 +17335,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -16661,6 +17359,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -16684,6 +17383,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -16709,6 +17409,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -16732,6 +17433,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -16755,6 +17457,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -16778,6 +17481,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -16801,6 +17505,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -16824,6 +17529,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -16847,6 +17553,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -16872,6 +17579,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -16895,6 +17603,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -16918,6 +17627,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -16941,6 +17651,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -16966,6 +17677,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -16991,6 +17703,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -17014,6 +17727,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -17037,6 +17751,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -17060,6 +17775,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -17083,6 +17799,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -17106,6 +17823,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -17129,6 +17847,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -17152,6 +17871,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -17175,6 +17895,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -17198,6 +17919,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -17221,6 +17943,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -17244,6 +17967,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -17267,6 +17991,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -17290,6 +18015,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -17313,6 +18039,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -17336,6 +18063,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -17359,6 +18087,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -17382,6 +18111,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -17407,6 +18137,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -17430,6 +18161,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -17453,6 +18185,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -17476,6 +18209,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -17499,6 +18233,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -17522,6 +18257,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -17545,6 +18281,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -17568,6 +18305,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -17591,6 +18329,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -17614,6 +18353,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -17637,6 +18377,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -17660,6 +18401,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -17683,6 +18425,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -17706,6 +18449,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -17729,6 +18473,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -17752,6 +18497,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -17775,6 +18521,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -17798,6 +18545,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -17821,6 +18569,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -17844,6 +18593,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -17867,6 +18617,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -17890,6 +18641,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -17913,6 +18665,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -17936,6 +18689,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -17959,6 +18713,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -17982,6 +18737,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -18005,6 +18761,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -18028,6 +18785,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -18051,6 +18809,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -18074,6 +18833,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -18097,6 +18857,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -18120,6 +18881,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -18143,6 +18905,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -18166,6 +18929,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -18189,6 +18953,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -18212,6 +18977,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -18235,6 +19001,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -18258,6 +19025,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -18281,6 +19049,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -18304,6 +19073,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -18327,6 +19097,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -18350,6 +19121,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -18373,6 +19145,7 @@
           <t>SEAGATE 5T</t>
         </is>
       </c>
+      <c r="F769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -18396,6 +19169,7 @@
           <t>MULTIMEDIA</t>
         </is>
       </c>
+      <c r="F770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -18417,6 +19191,27 @@
       <c r="E771" t="inlineStr">
         <is>
           <t>MULTIMEDIA</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Oppenheimer</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
         </is>
       </c>
     </row>
